--- a/data/snowballing/study_set_5.xlsx
+++ b/data/snowballing/study_set_5.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="879">
   <si>
     <t xml:space="preserve">record_id</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t xml:space="preserve">Forni_2008_the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dr</t>
   </si>
   <si>
     <t xml:space="preserve">4JRHDWPP</t>
@@ -2782,15 +2785,15 @@
   </sheetPr>
   <dimension ref="A1:AF101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A62" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A62" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A62" activeCellId="0" sqref="A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.27734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.65625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.2"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="8" min="7" style="0" width="11.25"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="22" min="14" style="0" width="11.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.71"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="7" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="22" min="14" style="0" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3157,7 +3160,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>8736</v>
       </c>
@@ -3289,6 +3292,9 @@
       <c r="Y7" s="0" t="s">
         <v>45</v>
       </c>
+      <c r="Z7" s="0" t="s">
+        <v>90</v>
+      </c>
       <c r="AF7" s="3" t="s">
         <v>70</v>
       </c>
@@ -3298,40 +3304,40 @@
         <v>9936</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>2022</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N8" s="0" t="n">
         <v>1</v>
@@ -3346,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="S8" s="2" t="n">
         <v>45092</v>
@@ -3372,13 +3378,13 @@
         <v>823</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>2021</v>
@@ -3387,13 +3393,13 @@
         <v>37</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N9" s="0" t="n">
         <v>1</v>
@@ -3408,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="S9" s="2" t="n">
         <v>45092</v>
@@ -3434,40 +3440,40 @@
         <v>1347</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N10" s="0" t="n">
         <v>1</v>
@@ -3482,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="S10" s="2" t="n">
         <v>45092</v>
@@ -3511,28 +3517,28 @@
         <v>5654</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>2022</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N11" s="0" t="n">
         <v>0</v>
@@ -3556,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="W11" s="0" t="n">
         <v>0</v>
@@ -3573,28 +3579,28 @@
         <v>633</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>2022</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N12" s="0" t="n">
         <v>1</v>
@@ -3609,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="S12" s="2" t="n">
         <v>45092</v>
@@ -3630,7 +3636,7 @@
         <v>45</v>
       </c>
       <c r="AF12" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3638,13 +3644,13 @@
         <v>670</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>2021</v>
@@ -3653,19 +3659,19 @@
         <v>86</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N13" s="0" t="n">
         <v>1</v>
@@ -3680,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="S13" s="2" t="n">
         <v>45092</v>
@@ -3692,7 +3698,7 @@
         <v>0</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="W13" s="0" t="n">
         <v>0</v>
@@ -3709,37 +3715,37 @@
         <v>3201</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>2012</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N14" s="0" t="n">
         <v>1</v>
@@ -3754,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="S14" s="2" t="n">
         <v>45092</v>
@@ -3766,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="V14" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="W14" s="0" t="n">
         <v>0</v>
@@ -3783,40 +3789,40 @@
         <v>10061</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>2005</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N15" s="0" t="n">
         <v>1</v>
@@ -3831,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S15" s="2" t="n">
         <v>45092</v>
@@ -3857,55 +3863,55 @@
         <v>7405</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>2020</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M16" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" s="0" t="s">
         <v>172</v>
-      </c>
-      <c r="N16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" s="0" t="s">
-        <v>171</v>
       </c>
       <c r="S16" s="2" t="n">
         <v>45100</v>
@@ -3920,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="X16" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y16" s="0" t="s">
         <v>45</v>
@@ -3931,37 +3937,37 @@
         <v>8364</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>75</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N17" s="0" t="n">
         <v>1</v>
@@ -3976,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="S17" s="2" t="n">
         <v>45100</v>
@@ -3991,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y17" s="0" t="s">
         <v>45</v>
@@ -4002,31 +4008,31 @@
         <v>7729</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>2011</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N18" s="0" t="n">
         <v>1</v>
@@ -4041,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="S18" s="2" t="n">
         <v>45100</v>
@@ -4067,28 +4073,28 @@
         <v>911</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>2005</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N19" s="0" t="n">
         <v>0</v>
@@ -4126,40 +4132,40 @@
         <v>7051</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>2022</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I20" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N20" s="0" t="n">
         <v>1</v>
@@ -4174,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="S20" s="2" t="n">
         <v>45100</v>
@@ -4200,40 +4206,40 @@
         <v>155</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>2007</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I21" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N21" s="0" t="n">
         <v>1</v>
@@ -4248,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="S21" s="2" t="n">
         <v>45100</v>
@@ -4277,55 +4283,55 @@
         <v>8603</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>2021</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M22" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" s="0" t="s">
         <v>227</v>
-      </c>
-      <c r="N22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" s="0" t="s">
-        <v>226</v>
       </c>
       <c r="S22" s="2" t="n">
         <v>45100</v>
@@ -4337,13 +4343,13 @@
         <v>0</v>
       </c>
       <c r="V22" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="W22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="X22" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y22" s="0" t="s">
         <v>45</v>
@@ -4354,55 +4360,55 @@
         <v>10060</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>75</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I23" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M23" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" s="0" t="s">
         <v>237</v>
-      </c>
-      <c r="N23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" s="0" t="s">
-        <v>236</v>
       </c>
       <c r="S23" s="2" t="n">
         <v>45100</v>
@@ -4428,13 +4434,13 @@
         <v>899</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>2020</v>
@@ -4443,13 +4449,13 @@
         <v>37</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N24" s="0" t="n">
         <v>1</v>
@@ -4464,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="R24" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="S24" s="2" t="n">
         <v>45100</v>
@@ -4490,22 +4496,22 @@
         <v>10360</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>2002</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>51</v>
@@ -4514,16 +4520,16 @@
         <v>37</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N25" s="0" t="n">
         <v>1</v>
@@ -4538,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="R25" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="S25" s="2" t="n">
         <v>45100</v>
@@ -4564,13 +4570,13 @@
         <v>758</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>2020</v>
@@ -4579,13 +4585,13 @@
         <v>37</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N26" s="0" t="n">
         <v>1</v>
@@ -4600,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="R26" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="S26" s="2" t="n">
         <v>45100</v>
@@ -4626,13 +4632,13 @@
         <v>7593</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>2002</v>
@@ -4641,10 +4647,10 @@
         <v>37</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N27" s="0" t="n">
         <v>1</v>
@@ -4659,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="R27" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="S27" s="2" t="n">
         <v>45100</v>
@@ -4688,37 +4694,37 @@
         <v>1381</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>2020</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I28" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N28" s="0" t="n">
         <v>1</v>
@@ -4733,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="R28" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="S28" s="2" t="n">
         <v>45100</v>
@@ -4759,37 +4765,37 @@
         <v>705</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>2014</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I29" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N29" s="0" t="n">
         <v>1</v>
@@ -4804,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="R29" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="S29" s="2" t="n">
         <v>45100</v>
@@ -4830,13 +4836,13 @@
         <v>10604</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>2002</v>
@@ -4845,10 +4851,10 @@
         <v>37</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N30" s="0" t="n">
         <v>1</v>
@@ -4863,7 +4869,7 @@
         <v>0</v>
       </c>
       <c r="R30" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S30" s="2" t="n">
         <v>45100</v>
@@ -4892,43 +4898,43 @@
         <v>9452</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M31" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" s="0" t="s">
         <v>297</v>
-      </c>
-      <c r="N31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" s="0" t="s">
-        <v>296</v>
       </c>
       <c r="S31" s="2" t="n">
         <v>45100</v>
@@ -4943,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y31" s="0" t="s">
         <v>45</v>
@@ -4954,55 +4960,55 @@
         <v>10415</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>2022</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I32" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M32" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" s="0" t="s">
         <v>306</v>
-      </c>
-      <c r="N32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" s="0" t="s">
-        <v>305</v>
       </c>
       <c r="S32" s="2" t="n">
         <v>45100</v>
@@ -5025,37 +5031,37 @@
         <v>403</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>2006</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I33" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N33" s="0" t="n">
         <v>1</v>
@@ -5070,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="R33" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="S33" s="2" t="n">
         <v>45100</v>
@@ -5096,55 +5102,55 @@
         <v>6939</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I34" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M34" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" s="0" t="s">
         <v>324</v>
-      </c>
-      <c r="N34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" s="0" t="s">
-        <v>323</v>
       </c>
       <c r="S34" s="2" t="n">
         <v>45100</v>
@@ -5173,55 +5179,55 @@
         <v>8723</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>2013</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I35" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M35" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" s="0" t="s">
         <v>334</v>
-      </c>
-      <c r="N35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" s="0" t="s">
-        <v>333</v>
       </c>
       <c r="S35" s="2" t="n">
         <v>45100</v>
@@ -5247,40 +5253,40 @@
         <v>6765</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>2002</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I36" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N36" s="0" t="n">
         <v>1</v>
@@ -5295,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="R36" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="S36" s="2" t="n">
         <v>45100</v>
@@ -5321,13 +5327,13 @@
         <v>931</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>2021</v>
@@ -5336,13 +5342,13 @@
         <v>37</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N37" s="0" t="n">
         <v>1</v>
@@ -5357,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="R37" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="S37" s="2" t="n">
         <v>45100</v>
@@ -5369,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="V37" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="W37" s="0" t="n">
         <v>0</v>
@@ -5386,40 +5392,40 @@
         <v>9396</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>2021</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I38" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N38" s="0" t="n">
         <v>1</v>
@@ -5434,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="R38" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="S38" s="2" t="n">
         <v>45100</v>
@@ -5449,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="X38" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y38" s="0" t="s">
         <v>45</v>
@@ -5460,55 +5466,55 @@
         <v>8489</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>2022</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I39" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M39" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="N39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" s="0" t="s">
         <v>370</v>
-      </c>
-      <c r="N39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" s="0" t="s">
-        <v>369</v>
       </c>
       <c r="S39" s="2" t="n">
         <v>45100</v>
@@ -5534,22 +5540,22 @@
         <v>7963</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>2022</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>36</v>
@@ -5558,31 +5564,31 @@
         <v>37</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M40" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="N40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" s="0" t="s">
         <v>378</v>
-      </c>
-      <c r="N40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" s="0" t="s">
-        <v>377</v>
       </c>
       <c r="S40" s="2" t="n">
         <v>45100</v>
@@ -5594,7 +5600,7 @@
         <v>0</v>
       </c>
       <c r="V40" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="W40" s="0" t="n">
         <v>0</v>
@@ -5611,13 +5617,13 @@
         <v>7751</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>2018</v>
@@ -5626,16 +5632,16 @@
         <v>65</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N41" s="0" t="n">
         <v>1</v>
@@ -5650,7 +5656,7 @@
         <v>0</v>
       </c>
       <c r="R41" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="S41" s="2" t="n">
         <v>45100</v>
@@ -5673,37 +5679,37 @@
         <v>3891</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I42" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N42" s="0" t="n">
         <v>1</v>
@@ -5718,7 +5724,7 @@
         <v>0</v>
       </c>
       <c r="R42" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="S42" s="2" t="n">
         <v>45100</v>
@@ -5744,37 +5750,37 @@
         <v>3977</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>1994</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I43" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N43" s="0" t="n">
         <v>1</v>
@@ -5789,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="R43" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="S43" s="2" t="n">
         <v>45100</v>
@@ -5815,37 +5821,37 @@
         <v>1132</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>2006</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I44" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N44" s="0" t="n">
         <v>1</v>
@@ -5860,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="R44" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="S44" s="2" t="n">
         <v>45100</v>
@@ -5886,37 +5892,37 @@
         <v>886</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>2006</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I45" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N45" s="0" t="n">
         <v>1</v>
@@ -5931,7 +5937,7 @@
         <v>0</v>
       </c>
       <c r="R45" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="S45" s="2" t="n">
         <v>45100</v>
@@ -5957,28 +5963,28 @@
         <v>8808</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N46" s="0" t="n">
         <v>0</v>
@@ -6016,13 +6022,13 @@
         <v>1114</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>2001</v>
@@ -6031,13 +6037,13 @@
         <v>37</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N47" s="0" t="n">
         <v>1</v>
@@ -6052,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="R47" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="S47" s="2" t="n">
         <v>45100</v>
@@ -6078,37 +6084,37 @@
         <v>1926</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I48" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N48" s="0" t="n">
         <v>1</v>
@@ -6123,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="R48" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="S48" s="2" t="n">
         <v>45100</v>
@@ -6146,34 +6152,34 @@
         <v>10550</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>2006</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N49" s="0" t="n">
         <v>1</v>
@@ -6188,7 +6194,7 @@
         <v>0</v>
       </c>
       <c r="R49" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="S49" s="2" t="n">
         <v>45100</v>
@@ -6214,40 +6220,40 @@
         <v>6665</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>2007</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="I50" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N50" s="0" t="n">
         <v>1</v>
@@ -6262,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="R50" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="S50" s="2" t="n">
         <v>45100</v>
@@ -6285,25 +6291,25 @@
         <v>8873</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>2011</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N51" s="0" t="n">
         <v>1</v>
@@ -6318,7 +6324,7 @@
         <v>0</v>
       </c>
       <c r="R51" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="S51" s="2" t="n">
         <v>45103</v>
@@ -6344,40 +6350,40 @@
         <v>10681</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>2010</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="I52" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N52" s="0" t="n">
         <v>1</v>
@@ -6392,7 +6398,7 @@
         <v>0</v>
       </c>
       <c r="R52" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="S52" s="2" t="n">
         <v>45103</v>
@@ -6415,37 +6421,37 @@
         <v>1326</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>2022</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="I53" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N53" s="0" t="n">
         <v>1</v>
@@ -6460,7 +6466,7 @@
         <v>0</v>
       </c>
       <c r="R53" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="S53" s="2" t="n">
         <v>45103</v>
@@ -6486,13 +6492,13 @@
         <v>9585</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E54" s="0" t="n">
         <v>2006</v>
@@ -6501,13 +6507,13 @@
         <v>37</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N54" s="0" t="n">
         <v>1</v>
@@ -6522,7 +6528,7 @@
         <v>0</v>
       </c>
       <c r="R54" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="S54" s="2" t="n">
         <v>45103</v>
@@ -6548,13 +6554,13 @@
         <v>6721</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>2012</v>
@@ -6563,10 +6569,10 @@
         <v>37</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N55" s="0" t="n">
         <v>1</v>
@@ -6581,7 +6587,7 @@
         <v>0</v>
       </c>
       <c r="R55" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="S55" s="2" t="n">
         <v>45103</v>
@@ -6610,28 +6616,28 @@
         <v>6373</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>2021</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N56" s="0" t="n">
         <v>0</v>
@@ -6669,40 +6675,40 @@
         <v>10701</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E57" s="0" t="n">
         <v>2009</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I57" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N57" s="0" t="n">
         <v>1</v>
@@ -6717,7 +6723,7 @@
         <v>0</v>
       </c>
       <c r="R57" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="S57" s="2" t="n">
         <v>45103</v>
@@ -6732,7 +6738,7 @@
         <v>0</v>
       </c>
       <c r="X57" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y57" s="0" t="s">
         <v>45</v>
@@ -6743,13 +6749,13 @@
         <v>1093</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>2008</v>
@@ -6758,13 +6764,13 @@
         <v>65</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N58" s="0" t="n">
         <v>1</v>
@@ -6779,7 +6785,7 @@
         <v>0</v>
       </c>
       <c r="R58" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="S58" s="2" t="n">
         <v>45110</v>
@@ -6802,40 +6808,40 @@
         <v>8042</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>1991</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I59" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N59" s="0" t="n">
         <v>1</v>
@@ -6850,7 +6856,7 @@
         <v>0</v>
       </c>
       <c r="R59" s="0" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="S59" s="2" t="n">
         <v>45110</v>
@@ -6876,40 +6882,40 @@
         <v>1684</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>2021</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="I60" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="N60" s="0" t="n">
         <v>1</v>
@@ -6924,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="R60" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="S60" s="2" t="n">
         <v>45110</v>
@@ -6947,13 +6953,13 @@
         <v>9154</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>2004</v>
@@ -6962,31 +6968,31 @@
         <v>37</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L61" s="0" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M61" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="N61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" s="0" t="s">
         <v>553</v>
-      </c>
-      <c r="N61" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O61" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P61" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R61" s="0" t="s">
-        <v>552</v>
       </c>
       <c r="S61" s="2" t="n">
         <v>45110</v>
@@ -7012,40 +7018,40 @@
         <v>6895</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>2020</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G62" s="0" t="s">
         <v>75</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I62" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L62" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N62" s="0" t="n">
         <v>1</v>
@@ -7060,7 +7066,7 @@
         <v>0</v>
       </c>
       <c r="R62" s="0" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="S62" s="2" t="n">
         <v>45110</v>
@@ -7086,28 +7092,28 @@
         <v>8542</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E63" s="0" t="n">
         <v>2011</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N63" s="0" t="n">
         <v>1</v>
@@ -7122,7 +7128,7 @@
         <v>0</v>
       </c>
       <c r="R63" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="S63" s="2" t="n">
         <v>45110</v>
@@ -7148,28 +7154,28 @@
         <v>3342</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L64" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N64" s="0" t="n">
         <v>1</v>
@@ -7184,7 +7190,7 @@
         <v>0</v>
       </c>
       <c r="R64" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="S64" s="2" t="n">
         <v>45110</v>
@@ -7210,13 +7216,13 @@
         <v>7761</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>2018</v>
@@ -7225,16 +7231,16 @@
         <v>65</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L65" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="N65" s="0" t="n">
         <v>1</v>
@@ -7249,7 +7255,7 @@
         <v>0</v>
       </c>
       <c r="R65" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="S65" s="2" t="n">
         <v>45110</v>
@@ -7272,34 +7278,34 @@
         <v>4128</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>2010</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="I66" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="L66" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N66" s="0" t="n">
         <v>0</v>
@@ -7337,55 +7343,55 @@
         <v>7045</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>2022</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="I67" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="L67" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M67" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="N67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" s="0" t="s">
         <v>601</v>
-      </c>
-      <c r="N67" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O67" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P67" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R67" s="0" t="s">
-        <v>600</v>
       </c>
       <c r="S67" s="2" t="n">
         <v>45110</v>
@@ -7411,37 +7417,37 @@
         <v>3963</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E68" s="0" t="n">
         <v>2010</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G68" s="0" t="n">
         <v>3</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="I68" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="L68" s="0" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="N68" s="0" t="n">
         <v>1</v>
@@ -7456,7 +7462,7 @@
         <v>0</v>
       </c>
       <c r="R68" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="S68" s="2" t="n">
         <v>45110</v>
@@ -7485,28 +7491,28 @@
         <v>515</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E69" s="0" t="n">
         <v>2007</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L69" s="0" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="N69" s="0" t="n">
         <v>0</v>
@@ -7544,13 +7550,13 @@
         <v>1016</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E70" s="0" t="n">
         <v>2009</v>
@@ -7559,22 +7565,22 @@
         <v>86</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="I70" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="L70" s="0" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="N70" s="0" t="n">
         <v>1</v>
@@ -7589,7 +7595,7 @@
         <v>0</v>
       </c>
       <c r="R70" s="0" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="S70" s="2" t="n">
         <v>45110</v>
@@ -7604,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="X70" s="0" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Y70" s="0" t="s">
         <v>45</v>
@@ -7615,31 +7621,31 @@
         <v>9267</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="I71" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="M71" s="0" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="N71" s="0" t="n">
         <v>1</v>
@@ -7654,7 +7660,7 @@
         <v>0</v>
       </c>
       <c r="R71" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="S71" s="2" t="n">
         <v>45110</v>
@@ -7680,37 +7686,37 @@
         <v>736</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>2020</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="I72" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="L72" s="0" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N72" s="0" t="n">
         <v>1</v>
@@ -7725,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="R72" s="0" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="S72" s="2" t="n">
         <v>45110</v>
@@ -7737,7 +7743,7 @@
         <v>0</v>
       </c>
       <c r="V72" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="W72" s="0" t="n">
         <v>1</v>
@@ -7754,13 +7760,13 @@
         <v>881</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>2016</v>
@@ -7769,13 +7775,13 @@
         <v>37</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="L73" s="0" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="M73" s="0" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="N73" s="0" t="n">
         <v>1</v>
@@ -7790,7 +7796,7 @@
         <v>0</v>
       </c>
       <c r="R73" s="0" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="S73" s="2" t="n">
         <v>45110</v>
@@ -7816,40 +7822,40 @@
         <v>10557</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E74" s="0" t="n">
         <v>2009</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G74" s="0" t="s">
         <v>75</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="I74" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="K74" s="0" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="L74" s="0" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="M74" s="0" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="N74" s="0" t="n">
         <v>1</v>
@@ -7864,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="R74" s="0" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="S74" s="2" t="n">
         <v>45110</v>
@@ -7876,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="V74" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="W74" s="0" t="n">
         <v>1</v>
@@ -7890,28 +7896,28 @@
         <v>6741</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E75" s="0" t="n">
         <v>2010</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="L75" s="0" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="M75" s="0" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="N75" s="0" t="n">
         <v>0</v>
@@ -7949,13 +7955,13 @@
         <v>9861</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E76" s="0" t="n">
         <v>2008</v>
@@ -7964,16 +7970,16 @@
         <v>37</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="K76" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="L76" s="0" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="M76" s="0" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N76" s="0" t="n">
         <v>1</v>
@@ -7988,7 +7994,7 @@
         <v>0</v>
       </c>
       <c r="R76" s="0" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="S76" s="2" t="n">
         <v>45110</v>
@@ -8014,31 +8020,31 @@
         <v>7802</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E77" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="I77" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="L77" s="0" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="M77" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="N77" s="0" t="n">
         <v>0</v>
@@ -8053,7 +8059,7 @@
         <v>0</v>
       </c>
       <c r="R77" s="4" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="S77" s="2" t="n">
         <v>45110</v>
@@ -8065,13 +8071,13 @@
         <v>0</v>
       </c>
       <c r="V77" s="0" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="W77" s="0" t="n">
         <v>0</v>
       </c>
       <c r="X77" s="0" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Y77" s="0" t="s">
         <v>45</v>
@@ -8082,49 +8088,49 @@
         <v>7162</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>2020</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="I78" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="K78" s="0" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="L78" s="0" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="M78" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="N78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" s="0" t="s">
         <v>689</v>
-      </c>
-      <c r="N78" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O78" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P78" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R78" s="0" t="s">
-        <v>688</v>
       </c>
       <c r="S78" s="2" t="n">
         <v>45110</v>
@@ -8139,7 +8145,7 @@
         <v>0</v>
       </c>
       <c r="X78" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y78" s="0" t="s">
         <v>45</v>
@@ -8150,13 +8156,13 @@
         <v>4900</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="E79" s="0" t="n">
         <v>2000</v>
@@ -8165,13 +8171,13 @@
         <v>37</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="L79" s="0" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="M79" s="0" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="N79" s="0" t="n">
         <v>1</v>
@@ -8186,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="R79" s="0" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="S79" s="2" t="n">
         <v>45110</v>
@@ -8212,13 +8218,13 @@
         <v>1150</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E80" s="0" t="n">
         <v>2004</v>
@@ -8227,13 +8233,13 @@
         <v>37</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="L80" s="0" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="M80" s="0" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="N80" s="0" t="n">
         <v>1</v>
@@ -8248,7 +8254,7 @@
         <v>0</v>
       </c>
       <c r="R80" s="0" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="S80" s="2" t="n">
         <v>45110</v>
@@ -8274,13 +8280,13 @@
         <v>9202</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E81" s="0" t="n">
         <v>1997</v>
@@ -8289,16 +8295,16 @@
         <v>37</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K81" s="0" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="L81" s="0" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="M81" s="0" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="N81" s="0" t="n">
         <v>1</v>
@@ -8313,7 +8319,7 @@
         <v>0</v>
       </c>
       <c r="R81" s="0" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="S81" s="2" t="n">
         <v>45110</v>
@@ -8339,34 +8345,34 @@
         <v>2286</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E82" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="I82" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="L82" s="0" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="M82" s="0" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="N82" s="0" t="n">
         <v>1</v>
@@ -8381,7 +8387,7 @@
         <v>0</v>
       </c>
       <c r="R82" s="0" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="S82" s="2" t="n">
         <v>45110</v>
@@ -8393,7 +8399,7 @@
         <v>0</v>
       </c>
       <c r="V82" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="W82" s="0" t="n">
         <v>0</v>
@@ -8410,37 +8416,37 @@
         <v>8544</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E83" s="0" t="n">
         <v>2020</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="I83" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="K83" s="0" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="L83" s="0" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="M83" s="0" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="N83" s="0" t="n">
         <v>1</v>
@@ -8455,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="R83" s="0" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="S83" s="2" t="n">
         <v>45110</v>
@@ -8467,7 +8473,7 @@
         <v>0</v>
       </c>
       <c r="V83" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="W83" s="0" t="n">
         <v>0</v>
@@ -8484,37 +8490,37 @@
         <v>6024</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>2004</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="I84" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="L84" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="M84" s="0" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="N84" s="0" t="n">
         <v>1</v>
@@ -8529,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="R84" s="0" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="S84" s="2" t="n">
         <v>45110</v>
@@ -8541,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="V84" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="W84" s="0" t="n">
         <v>0</v>
@@ -8558,46 +8564,46 @@
         <v>9890</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="E85" s="0" t="n">
         <v>2013</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="J85" s="0" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="L85" s="0" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="M85" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="N85" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" s="0" t="s">
         <v>744</v>
-      </c>
-      <c r="N85" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O85" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P85" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R85" s="0" t="s">
-        <v>743</v>
       </c>
       <c r="S85" s="2" t="n">
         <v>45110</v>
@@ -8623,37 +8629,37 @@
         <v>315</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E86" s="0" t="n">
         <v>2014</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="I86" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="L86" s="0" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="M86" s="0" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="N86" s="0" t="n">
         <v>1</v>
@@ -8668,7 +8674,7 @@
         <v>0</v>
       </c>
       <c r="R86" s="0" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="S86" s="2" t="n">
         <v>45110</v>
@@ -8694,40 +8700,40 @@
         <v>2452</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E87" s="0" t="n">
         <v>2014</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="G87" s="0" t="n">
         <v>290</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="I87" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="K87" s="0" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="L87" s="0" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="M87" s="0" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="N87" s="0" t="n">
         <v>1</v>
@@ -8742,7 +8748,7 @@
         <v>0</v>
       </c>
       <c r="R87" s="0" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="S87" s="2" t="n">
         <v>45110</v>
@@ -8771,13 +8777,13 @@
         <v>784</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E88" s="0" t="n">
         <v>2020</v>
@@ -8786,13 +8792,13 @@
         <v>37</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="L88" s="0" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="M88" s="0" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="N88" s="0" t="n">
         <v>1</v>
@@ -8807,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="R88" s="0" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="S88" s="2" t="n">
         <v>45110</v>
@@ -8822,7 +8828,7 @@
         <v>0</v>
       </c>
       <c r="X88" s="0" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="Y88" s="0" t="s">
         <v>45</v>
@@ -8833,40 +8839,40 @@
         <v>10679</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E89" s="0" t="n">
         <v>2010</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="I89" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="K89" s="0" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="L89" s="0" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="M89" s="0" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="N89" s="0" t="n">
         <v>1</v>
@@ -8881,7 +8887,7 @@
         <v>0</v>
       </c>
       <c r="R89" s="0" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="S89" s="2" t="n">
         <v>45110</v>
@@ -8893,13 +8899,13 @@
         <v>0</v>
       </c>
       <c r="V89" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="W89" s="0" t="n">
         <v>0</v>
       </c>
       <c r="X89" s="0" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="Y89" s="0" t="s">
         <v>45</v>
@@ -8910,55 +8916,55 @@
         <v>10289</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="E90" s="0" t="n">
         <v>2022</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="I90" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="K90" s="0" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="L90" s="0" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="M90" s="0" t="s">
+        <v>790</v>
+      </c>
+      <c r="N90" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" s="0" t="s">
         <v>789</v>
-      </c>
-      <c r="N90" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O90" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P90" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q90" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R90" s="0" t="s">
-        <v>788</v>
       </c>
       <c r="S90" s="2" t="n">
         <v>45110</v>
@@ -8973,7 +8979,7 @@
         <v>0</v>
       </c>
       <c r="X90" s="0" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="Y90" s="0" t="s">
         <v>45</v>
@@ -8982,7 +8988,7 @@
         <v>1</v>
       </c>
       <c r="AE90" s="0" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8990,37 +8996,37 @@
         <v>1361</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E91" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>75</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="I91" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="L91" s="0" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="M91" s="0" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="N91" s="0" t="n">
         <v>1</v>
@@ -9035,7 +9041,7 @@
         <v>0</v>
       </c>
       <c r="R91" s="0" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="S91" s="2" t="n">
         <v>45110</v>
@@ -9061,13 +9067,13 @@
         <v>10156</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E92" s="0" t="n">
         <v>2005</v>
@@ -9076,28 +9082,28 @@
         <v>37</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="L92" s="0" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="M92" s="0" t="s">
+        <v>806</v>
+      </c>
+      <c r="N92" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O92" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" s="0" t="s">
         <v>805</v>
-      </c>
-      <c r="N92" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O92" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P92" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q92" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R92" s="0" t="s">
-        <v>804</v>
       </c>
       <c r="S92" s="2" t="n">
         <v>45110</v>
@@ -9112,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="X92" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y92" s="0" t="s">
         <v>45</v>
@@ -9123,28 +9129,28 @@
         <v>3822</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E93" s="0" t="n">
         <v>2012</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="L93" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="M93" s="0" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="N93" s="0" t="n">
         <v>1</v>
@@ -9159,7 +9165,7 @@
         <v>0</v>
       </c>
       <c r="R93" s="0" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="S93" s="2" t="n">
         <v>45110</v>
@@ -9174,7 +9180,7 @@
         <v>0</v>
       </c>
       <c r="X93" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y93" s="0" t="s">
         <v>45</v>
@@ -9185,37 +9191,37 @@
         <v>3111</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="E94" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="I94" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J94" s="0" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="L94" s="0" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="M94" s="0" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="N94" s="0" t="n">
         <v>0</v>
@@ -9230,7 +9236,7 @@
         <v>0</v>
       </c>
       <c r="R94" s="0" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="S94" s="2" t="n">
         <v>45110</v>
@@ -9242,7 +9248,7 @@
         <v>0</v>
       </c>
       <c r="V94" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="W94" s="0" t="n">
         <v>0</v>
@@ -9259,13 +9265,13 @@
         <v>10496</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="E95" s="0" t="n">
         <v>2022</v>
@@ -9274,16 +9280,16 @@
         <v>37</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="K95" s="0" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="L95" s="0" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="M95" s="0" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="N95" s="0" t="n">
         <v>1</v>
@@ -9298,7 +9304,7 @@
         <v>0</v>
       </c>
       <c r="R95" s="0" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="S95" s="2" t="n">
         <v>45110</v>
@@ -9313,7 +9319,7 @@
         <v>0</v>
       </c>
       <c r="X95" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y95" s="0" t="s">
         <v>45</v>
@@ -9324,28 +9330,28 @@
         <v>4228</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E96" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J96" s="0" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="L96" s="0" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="M96" s="0" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="N96" s="0" t="n">
         <v>0</v>
@@ -9383,22 +9389,22 @@
         <v>646</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E97" s="0" t="n">
         <v>2013</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H97" s="0" t="s">
         <v>50</v>
@@ -9407,13 +9413,13 @@
         <v>37</v>
       </c>
       <c r="J97" s="0" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="L97" s="0" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="M97" s="0" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="N97" s="0" t="n">
         <v>1</v>
@@ -9428,7 +9434,7 @@
         <v>0</v>
       </c>
       <c r="R97" s="0" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="S97" s="2" t="n">
         <v>45110</v>
@@ -9454,37 +9460,37 @@
         <v>10127</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>2022</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="I98" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J98" s="0" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="K98" s="0" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L98" s="0" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="M98" s="0" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="N98" s="0" t="n">
         <v>0</v>
@@ -9499,7 +9505,7 @@
         <v>0</v>
       </c>
       <c r="R98" s="0" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="S98" s="2" t="n">
         <v>45110</v>
@@ -9511,7 +9517,7 @@
         <v>0</v>
       </c>
       <c r="V98" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="W98" s="0" t="n">
         <v>0</v>
@@ -9528,13 +9534,13 @@
         <v>6619</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>1994</v>
@@ -9543,25 +9549,25 @@
         <v>86</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I99" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="K99" s="0" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="L99" s="0" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="M99" s="0" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="N99" s="0" t="n">
         <v>1</v>
@@ -9576,7 +9582,7 @@
         <v>0</v>
       </c>
       <c r="R99" s="0" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="S99" s="2" t="n">
         <v>45110</v>
@@ -9602,28 +9608,28 @@
         <v>10272</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="E100" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="L100" s="0" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="M100" s="0" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="N100" s="0" t="n">
         <v>0</v>
@@ -9650,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="X100" s="0" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="Y100" s="0" t="s">
         <v>45</v>
@@ -9661,40 +9667,40 @@
         <v>615</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="E101" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="I101" s="0" t="s">
         <v>37</v>
       </c>
       <c r="J101" s="0" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="K101" s="0" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="L101" s="0" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="M101" s="0" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="N101" s="0" t="n">
         <v>1</v>
@@ -9709,7 +9715,7 @@
         <v>0</v>
       </c>
       <c r="R101" s="0" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="S101" s="2" t="n">
         <v>45110</v>
